--- a/output/kossutha/2019/sheets/year_2019.xlsx
+++ b/output/kossutha/2019/sheets/year_2019.xlsx
@@ -481,68 +481,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A2" t="n">
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>36.2516129032258</v>
+        <v>47.0271206921244</v>
       </c>
       <c r="C2" t="n">
-        <v>1.025806451612903</v>
+        <v>1.33039444754545</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A3" t="n">
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>47.51333333333333</v>
+        <v>47.67639785833757</v>
       </c>
       <c r="C3" t="n">
-        <v>38.76000000000001</v>
+        <v>43.89884661832628</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A4" t="n">
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>50.36129032258064</v>
+        <v>52.19711632082382</v>
       </c>
       <c r="C4" t="n">
-        <v>45.03225806451613</v>
+        <v>48.10966512154835</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A5" t="n">
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>34.91666666666666</v>
+        <v>46.34185835784712</v>
       </c>
       <c r="C5" t="n">
-        <v>12.37333333333333</v>
+        <v>41.91471571153248</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A6" t="n">
+        <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>41.09354838709677</v>
+        <v>44.69413663322972</v>
       </c>
       <c r="C6" t="n">
-        <v>31.80322580645161</v>
+        <v>40.23193093839823</v>
       </c>
     </row>
   </sheetData>
